--- a/Variance Estimation/Data/final_agg_results.xlsx
+++ b/Variance Estimation/Data/final_agg_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eca1824398d7411f/Documents/Grad School/2024-2025/Fall 2025/reCDF/reCDF/Variance Estimation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_953293301DC1EDA94604204E5F7A0E594ADD3554" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3923BF9-004E-3D4F-BB86-B17EBE5E8E7E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_943293301D41E9B4A647324E5F7A0ECB621C343D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{930DAF8A-E9EF-5B4C-B389-E27858EC15E6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6933,6 +6933,24 @@
       <c r="H130">
         <v>48.330735937225398</v>
       </c>
+      <c r="I130">
+        <v>48.7884405800568</v>
+      </c>
+      <c r="J130">
+        <v>0.48529328372688502</v>
+      </c>
+      <c r="K130">
+        <v>0.70062165994110603</v>
+      </c>
+      <c r="L130">
+        <v>1.9967426880767201</v>
+      </c>
+      <c r="M130">
+        <v>0.67560139353885995</v>
+      </c>
+      <c r="N130">
+        <v>28.168697050064399</v>
+      </c>
       <c r="O130">
         <v>1500</v>
       </c>
@@ -6965,6 +6983,24 @@
       <c r="H131">
         <v>48.330735937225398</v>
       </c>
+      <c r="I131">
+        <v>48.7884405800568</v>
+      </c>
+      <c r="J131">
+        <v>0.27527604122627702</v>
+      </c>
+      <c r="K131">
+        <v>0.56830779263123599</v>
+      </c>
+      <c r="L131">
+        <v>1.3768201876611901</v>
+      </c>
+      <c r="M131">
+        <v>0.67560139353885995</v>
+      </c>
+      <c r="N131">
+        <v>59.254666455858398</v>
+      </c>
       <c r="O131">
         <v>1500</v>
       </c>
@@ -6997,6 +7033,24 @@
       <c r="H132">
         <v>48.330735937225398</v>
       </c>
+      <c r="I132">
+        <v>48.7884405800568</v>
+      </c>
+      <c r="J132">
+        <v>0.67053296249865602</v>
+      </c>
+      <c r="K132">
+        <v>0.73891029168959799</v>
+      </c>
+      <c r="L132">
+        <v>2.31963150970331</v>
+      </c>
+      <c r="M132">
+        <v>0.67560139353885995</v>
+      </c>
+      <c r="N132">
+        <v>0.75021027023875997</v>
+      </c>
       <c r="O132">
         <v>1500</v>
       </c>
@@ -7029,6 +7083,24 @@
       <c r="H133">
         <v>48.330735937225398</v>
       </c>
+      <c r="I133">
+        <v>48.779062034854398</v>
+      </c>
+      <c r="J133">
+        <v>0.46477721953200601</v>
+      </c>
+      <c r="K133">
+        <v>0.68017476788640097</v>
+      </c>
+      <c r="L133">
+        <v>1.95149409483624</v>
+      </c>
+      <c r="M133">
+        <v>0.57679261804512405</v>
+      </c>
+      <c r="N133">
+        <v>19.4203939177936</v>
+      </c>
       <c r="O133">
         <v>1500</v>
       </c>
@@ -7061,6 +7133,24 @@
       <c r="H134">
         <v>48.330735937225398</v>
       </c>
+      <c r="I134">
+        <v>48.779062034854398</v>
+      </c>
+      <c r="J134">
+        <v>6.4508631656829296E-2</v>
+      </c>
+      <c r="K134">
+        <v>0.18245956800173699</v>
+      </c>
+      <c r="L134">
+        <v>0.41714088227595397</v>
+      </c>
+      <c r="M134">
+        <v>0.57679261804512405</v>
+      </c>
+      <c r="N134">
+        <v>88.815974816830504</v>
+      </c>
       <c r="O134">
         <v>1500</v>
       </c>
@@ -7093,6 +7183,24 @@
       <c r="H135">
         <v>48.330735937225398</v>
       </c>
+      <c r="I135">
+        <v>48.779062034854398</v>
+      </c>
+      <c r="J135">
+        <v>0.49673660029803701</v>
+      </c>
+      <c r="K135">
+        <v>0.69086522645026904</v>
+      </c>
+      <c r="L135">
+        <v>2.0127466645880601</v>
+      </c>
+      <c r="M135">
+        <v>0.57679261804512405</v>
+      </c>
+      <c r="N135">
+        <v>13.879514966473399</v>
+      </c>
       <c r="O135">
         <v>1500</v>
       </c>
@@ -7125,6 +7233,24 @@
       <c r="H136">
         <v>48.330735937225398</v>
       </c>
+      <c r="I136">
+        <v>48.565358830155603</v>
+      </c>
+      <c r="J136">
+        <v>0.42549961629361299</v>
+      </c>
+      <c r="K136">
+        <v>0.73139229422066498</v>
+      </c>
+      <c r="L136">
+        <v>1.8523211965533499</v>
+      </c>
+      <c r="M136">
+        <v>0.559442311943398</v>
+      </c>
+      <c r="N136">
+        <v>23.942181846148301</v>
+      </c>
       <c r="O136">
         <v>1500</v>
       </c>
@@ -7157,6 +7283,24 @@
       <c r="H137">
         <v>48.330735937225398</v>
       </c>
+      <c r="I137">
+        <v>48.565358830155603</v>
+      </c>
+      <c r="J137">
+        <v>0.23568568707844501</v>
+      </c>
+      <c r="K137">
+        <v>0.66050858509019705</v>
+      </c>
+      <c r="L137">
+        <v>1.36239306121686</v>
+      </c>
+      <c r="M137">
+        <v>0.559442311943398</v>
+      </c>
+      <c r="N137">
+        <v>57.871315406995798</v>
+      </c>
       <c r="O137">
         <v>1500</v>
       </c>
@@ -7189,6 +7333,24 @@
       <c r="H138">
         <v>48.330735937225398</v>
       </c>
+      <c r="I138">
+        <v>48.565358830155603</v>
+      </c>
+      <c r="J138">
+        <v>0.58670550701372803</v>
+      </c>
+      <c r="K138">
+        <v>0.76900198281559795</v>
+      </c>
+      <c r="L138">
+        <v>2.1722504657383199</v>
+      </c>
+      <c r="M138">
+        <v>0.559442311943398</v>
+      </c>
+      <c r="N138">
+        <v>-4.8732808527875697</v>
+      </c>
       <c r="O138">
         <v>1500</v>
       </c>
@@ -7221,6 +7383,24 @@
       <c r="H139">
         <v>48.330735937225398</v>
       </c>
+      <c r="I139">
+        <v>48.565910511526504</v>
+      </c>
+      <c r="J139">
+        <v>0.39743936883111303</v>
+      </c>
+      <c r="K139">
+        <v>0.75985545335085403</v>
+      </c>
+      <c r="L139">
+        <v>1.77959056593559</v>
+      </c>
+      <c r="M139">
+        <v>0.51914650218413005</v>
+      </c>
+      <c r="N139">
+        <v>23.4436970760616</v>
+      </c>
       <c r="O139">
         <v>1500</v>
       </c>
@@ -7253,6 +7433,24 @@
       <c r="H140">
         <v>48.330735937225398</v>
       </c>
+      <c r="I140">
+        <v>48.565910511526504</v>
+      </c>
+      <c r="J140">
+        <v>5.8254017085182602E-2</v>
+      </c>
+      <c r="K140">
+        <v>0.22402173913043399</v>
+      </c>
+      <c r="L140">
+        <v>0.43124333584086399</v>
+      </c>
+      <c r="M140">
+        <v>0.51914650218413005</v>
+      </c>
+      <c r="N140">
+        <v>88.778886722707597</v>
+      </c>
       <c r="O140">
         <v>1500</v>
       </c>
@@ -7285,6 +7483,24 @@
       <c r="H141">
         <v>48.330735937225398</v>
       </c>
+      <c r="I141">
+        <v>48.565910511526504</v>
+      </c>
+      <c r="J141">
+        <v>0.44902279700583098</v>
+      </c>
+      <c r="K141">
+        <v>0.76739584478399503</v>
+      </c>
+      <c r="L141">
+        <v>1.8784850261897399</v>
+      </c>
+      <c r="M141">
+        <v>0.51914650218413005</v>
+      </c>
+      <c r="N141">
+        <v>13.5074983426216</v>
+      </c>
       <c r="O141">
         <v>1500</v>
       </c>
@@ -13420,11 +13636,20 @@
       <c r="I264">
         <v>1.17825978566881</v>
       </c>
+      <c r="J264">
+        <v>1.31702865869201E-3</v>
+      </c>
       <c r="K264">
         <v>1.9535489472541699E-3</v>
       </c>
+      <c r="L264">
+        <v>0.118667542373759</v>
+      </c>
       <c r="M264">
         <v>1.60930949415547E-3</v>
+      </c>
+      <c r="N264">
+        <v>18.161878527712201</v>
       </c>
       <c r="O264">
         <v>1500</v>
@@ -13708,6 +13933,18 @@
       <c r="H270">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I270" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J270" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K270" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L270" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O270">
         <v>1500</v>
       </c>
@@ -13740,6 +13977,18 @@
       <c r="H271">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I271" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J271" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K271" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L271" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O271">
         <v>1500</v>
       </c>
@@ -13772,6 +14021,18 @@
       <c r="H272">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I272" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J272" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K272" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L272" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O272">
         <v>1500</v>
       </c>
@@ -13804,6 +14065,18 @@
       <c r="H273">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I273" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J273" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K273" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L273" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O273">
         <v>1500</v>
       </c>
@@ -13836,6 +14109,18 @@
       <c r="H274">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I274" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J274" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K274" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L274" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O274">
         <v>1500</v>
       </c>
@@ -13868,6 +14153,18 @@
       <c r="H275">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I275" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J275" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K275" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L275" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O275">
         <v>1500</v>
       </c>
@@ -13900,6 +14197,18 @@
       <c r="H276">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I276" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J276" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K276" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L276" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O276">
         <v>1500</v>
       </c>
@@ -13932,6 +14241,18 @@
       <c r="H277">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I277" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J277" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K277" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L277" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O277">
         <v>1500</v>
       </c>
@@ -13964,6 +14285,18 @@
       <c r="H278">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I278" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J278" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K278" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L278" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O278">
         <v>1500</v>
       </c>
@@ -13996,6 +14329,18 @@
       <c r="H279">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I279" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J279" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K279" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L279" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O279">
         <v>1500</v>
       </c>
@@ -14028,6 +14373,18 @@
       <c r="H280">
         <v>2.1248665145427101</v>
       </c>
+      <c r="I280" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J280" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K280" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L280" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="O280">
         <v>1500</v>
       </c>
@@ -14059,6 +14416,18 @@
       </c>
       <c r="H281">
         <v>2.1248665145427101</v>
+      </c>
+      <c r="I281" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J281" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K281" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L281" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="O281">
         <v>1500</v>
